--- a/EmailAutomation/New Microsoft Excel Worksheet.xlsx
+++ b/EmailAutomation/New Microsoft Excel Worksheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF85D3B-8284-4EC6-A32A-02400A9C4A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,21 +374,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -423,7 +424,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EmailAutomation/New Microsoft Excel Worksheet.xlsx
+++ b/EmailAutomation/New Microsoft Excel Worksheet.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF85D3B-8284-4EC6-A32A-02400A9C4A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,24 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>varsta</t>
-  </si>
-  <si>
-    <t>talie</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>rasa</t>
-  </si>
-  <si>
-    <t>10 luni</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>https://www.cs.ubbcluj.ro/~rlupsa/edu/pdp/projects.html</t>
   </si>
   <si>
@@ -47,12 +28,30 @@
   </si>
   <si>
     <t>maidanez</t>
+  </si>
+  <si>
+    <t>2 ani</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,57 +373,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
